--- a/timbre_and_rhythm_features_decomposition/tracks_similarity_matrix.xlsx
+++ b/timbre_and_rhythm_features_decomposition/tracks_similarity_matrix.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="102">
   <si>
     <t>01 - Paper Gods.csv</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>21. Cantamus - Aurora.csv</t>
+  </si>
+  <si>
+    <t>Ludovico Einaudi – Una Mattina.csv</t>
   </si>
   <si>
     <t>morricone_30s.csv</t>
@@ -674,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CX102"/>
+  <dimension ref="A1:CY103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:102">
+    <row r="1" spans="1:103">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -984,8 +987,11 @@
       <c r="CX1" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="2" spans="1:102">
+    <row r="2" spans="1:103">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1287,13 +1293,16 @@
         <v>0.2106097908013105</v>
       </c>
       <c r="CW2">
+        <v>0.3817707094644861</v>
+      </c>
+      <c r="CX2">
         <v>0.9211559020939926</v>
       </c>
-      <c r="CX2">
+      <c r="CY2">
         <v>0.05479220858475353</v>
       </c>
     </row>
-    <row r="3" spans="1:102">
+    <row r="3" spans="1:103">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1595,13 +1604,16 @@
         <v>0.2053170071969551</v>
       </c>
       <c r="CW3">
+        <v>0.3113289338968686</v>
+      </c>
+      <c r="CX3">
         <v>0.7976804759625967</v>
       </c>
-      <c r="CX3">
+      <c r="CY3">
         <v>0.1118084724571182</v>
       </c>
     </row>
-    <row r="4" spans="1:102">
+    <row r="4" spans="1:103">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1903,13 +1915,16 @@
         <v>0.7080008405954308</v>
       </c>
       <c r="CW4">
+        <v>0.7533536324111988</v>
+      </c>
+      <c r="CX4">
         <v>0.9282222882557687</v>
       </c>
-      <c r="CX4">
+      <c r="CY4">
         <v>0.6196472988766097</v>
       </c>
     </row>
-    <row r="5" spans="1:102">
+    <row r="5" spans="1:103">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2211,13 +2226,16 @@
         <v>0.3914358836089702</v>
       </c>
       <c r="CW5">
+        <v>0.446378653281403</v>
+      </c>
+      <c r="CX5">
         <v>0.1460823924199414</v>
       </c>
-      <c r="CX5">
+      <c r="CY5">
         <v>0.5716952955701526</v>
       </c>
     </row>
-    <row r="6" spans="1:102">
+    <row r="6" spans="1:103">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2519,13 +2537,16 @@
         <v>0.368441715475512</v>
       </c>
       <c r="CW6">
+        <v>0.3848010597397604</v>
+      </c>
+      <c r="CX6">
         <v>0.3118797737602405</v>
       </c>
-      <c r="CX6">
+      <c r="CY6">
         <v>0.440623999111622</v>
       </c>
     </row>
-    <row r="7" spans="1:102">
+    <row r="7" spans="1:103">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2827,13 +2848,16 @@
         <v>0.1964292432682516</v>
       </c>
       <c r="CW7">
+        <v>0.3252208358715842</v>
+      </c>
+      <c r="CX7">
         <v>0.7996701674281622</v>
       </c>
-      <c r="CX7">
+      <c r="CY7">
         <v>0.08048326573935283</v>
       </c>
     </row>
-    <row r="8" spans="1:102">
+    <row r="8" spans="1:103">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3135,13 +3159,16 @@
         <v>0.316364542564909</v>
       </c>
       <c r="CW8">
+        <v>0.463793403370417</v>
+      </c>
+      <c r="CX8">
         <v>0.8883994553441639</v>
       </c>
-      <c r="CX8">
+      <c r="CY8">
         <v>0.1641739199552987</v>
       </c>
     </row>
-    <row r="9" spans="1:102">
+    <row r="9" spans="1:103">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3443,13 +3470,16 @@
         <v>0.194193226697181</v>
       </c>
       <c r="CW9">
+        <v>0.3628097746322285</v>
+      </c>
+      <c r="CX9">
         <v>0.8906158908605828</v>
       </c>
-      <c r="CX9">
+      <c r="CY9">
         <v>0.04965573280273405</v>
       </c>
     </row>
-    <row r="10" spans="1:102">
+    <row r="10" spans="1:103">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3751,13 +3781,16 @@
         <v>0.4546808791477963</v>
       </c>
       <c r="CW10">
+        <v>0.4132791601994933</v>
+      </c>
+      <c r="CX10">
         <v>0.2215743076622185</v>
       </c>
-      <c r="CX10">
+      <c r="CY10">
         <v>0.6622983171647703</v>
       </c>
     </row>
-    <row r="11" spans="1:102">
+    <row r="11" spans="1:103">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4059,13 +4092,16 @@
         <v>0.8270392561458982</v>
       </c>
       <c r="CW11">
+        <v>0.8569180664922864</v>
+      </c>
+      <c r="CX11">
         <v>0.9509026185337128</v>
       </c>
-      <c r="CX11">
+      <c r="CY11">
         <v>0.7509889471383964</v>
       </c>
     </row>
-    <row r="12" spans="1:102">
+    <row r="12" spans="1:103">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -4367,13 +4403,16 @@
         <v>0.2048473935152181</v>
       </c>
       <c r="CW12">
+        <v>0.3049103013793519</v>
+      </c>
+      <c r="CX12">
         <v>0.7940630753570177</v>
       </c>
-      <c r="CX12">
+      <c r="CY12">
         <v>0.1213345819293182</v>
       </c>
     </row>
-    <row r="13" spans="1:102">
+    <row r="13" spans="1:103">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4675,13 +4714,16 @@
         <v>0.2289295741501864</v>
       </c>
       <c r="CW13">
+        <v>0.335445223344188</v>
+      </c>
+      <c r="CX13">
         <v>0.5205242995591757</v>
       </c>
-      <c r="CX13">
+      <c r="CY13">
         <v>0.1804729160880193</v>
       </c>
     </row>
-    <row r="14" spans="1:102">
+    <row r="14" spans="1:103">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -4983,13 +5025,16 @@
         <v>0.2715612502455065</v>
       </c>
       <c r="CW14">
+        <v>0.4137199410596093</v>
+      </c>
+      <c r="CX14">
         <v>0.8444369945844781</v>
       </c>
-      <c r="CX14">
+      <c r="CY14">
         <v>0.1349841226082857</v>
       </c>
     </row>
-    <row r="15" spans="1:102">
+    <row r="15" spans="1:103">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -5291,13 +5336,16 @@
         <v>0.2072218073021118</v>
       </c>
       <c r="CW15">
+        <v>0.3833527172551173</v>
+      </c>
+      <c r="CX15">
         <v>0.9042113275924095</v>
       </c>
-      <c r="CX15">
+      <c r="CY15">
         <v>0.05517000499118963</v>
       </c>
     </row>
-    <row r="16" spans="1:102">
+    <row r="16" spans="1:103">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -5599,13 +5647,16 @@
         <v>0.4908176589330894</v>
       </c>
       <c r="CW16">
+        <v>0.4497834377501214</v>
+      </c>
+      <c r="CX16">
         <v>0.1606285806864001</v>
       </c>
-      <c r="CX16">
+      <c r="CY16">
         <v>0.603865412207492</v>
       </c>
     </row>
-    <row r="17" spans="1:102">
+    <row r="17" spans="1:103">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -5907,13 +5958,16 @@
         <v>0.8913948165553975</v>
       </c>
       <c r="CW17">
+        <v>0.9087061467432609</v>
+      </c>
+      <c r="CX17">
         <v>0.9493486173859761</v>
       </c>
-      <c r="CX17">
+      <c r="CY17">
         <v>0.8265091246213743</v>
       </c>
     </row>
-    <row r="18" spans="1:102">
+    <row r="18" spans="1:103">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -6215,13 +6269,16 @@
         <v>0.3411486157682162</v>
       </c>
       <c r="CW18">
+        <v>0.4425856685175693</v>
+      </c>
+      <c r="CX18">
         <v>0.7582469364767623</v>
       </c>
-      <c r="CX18">
+      <c r="CY18">
         <v>0.2303621003109155</v>
       </c>
     </row>
-    <row r="19" spans="1:102">
+    <row r="19" spans="1:103">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -6523,13 +6580,16 @@
         <v>0.2991354445346399</v>
       </c>
       <c r="CW19">
+        <v>0.4237195809565891</v>
+      </c>
+      <c r="CX19">
         <v>0.8169635615019292</v>
       </c>
-      <c r="CX19">
+      <c r="CY19">
         <v>0.1787272318276601</v>
       </c>
     </row>
-    <row r="20" spans="1:102">
+    <row r="20" spans="1:103">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -6831,13 +6891,16 @@
         <v>0.4781204692331813</v>
       </c>
       <c r="CW20">
+        <v>0.581814797589997</v>
+      </c>
+      <c r="CX20">
         <v>0.8947376794257452</v>
       </c>
-      <c r="CX20">
+      <c r="CY20">
         <v>0.3541140934015156</v>
       </c>
     </row>
-    <row r="21" spans="1:102">
+    <row r="21" spans="1:103">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -7139,13 +7202,16 @@
         <v>0.1971351136343438</v>
       </c>
       <c r="CW21">
+        <v>0.345547153545811</v>
+      </c>
+      <c r="CX21">
         <v>0.8806752215064313</v>
       </c>
-      <c r="CX21">
+      <c r="CY21">
         <v>0.06030058815692663</v>
       </c>
     </row>
-    <row r="22" spans="1:102">
+    <row r="22" spans="1:103">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -7447,13 +7513,16 @@
         <v>0.05115756117571379</v>
       </c>
       <c r="CW22">
+        <v>0.02787064400809514</v>
+      </c>
+      <c r="CX22">
         <v>0.429802676381675</v>
       </c>
-      <c r="CX22">
+      <c r="CY22">
         <v>0.143245368710244</v>
       </c>
     </row>
-    <row r="23" spans="1:102">
+    <row r="23" spans="1:103">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -7755,13 +7824,16 @@
         <v>0.2672793866073694</v>
       </c>
       <c r="CW23">
+        <v>0.2242783060991963</v>
+      </c>
+      <c r="CX23">
         <v>0.163545477832536</v>
       </c>
-      <c r="CX23">
+      <c r="CY23">
         <v>0.4534667294538711</v>
       </c>
     </row>
-    <row r="24" spans="1:102">
+    <row r="24" spans="1:103">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -8063,13 +8135,16 @@
         <v>0.1471955132495547</v>
       </c>
       <c r="CW24">
+        <v>0.2756591035385608</v>
+      </c>
+      <c r="CX24">
         <v>0.7217974769794719</v>
       </c>
-      <c r="CX24">
+      <c r="CY24">
         <v>0.04989888591696734</v>
       </c>
     </row>
-    <row r="25" spans="1:102">
+    <row r="25" spans="1:103">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -8371,13 +8446,16 @@
         <v>0.2500242349998916</v>
       </c>
       <c r="CW25">
+        <v>0.3842625957746377</v>
+      </c>
+      <c r="CX25">
         <v>0.8060287174965232</v>
       </c>
-      <c r="CX25">
+      <c r="CY25">
         <v>0.1264550614305355</v>
       </c>
     </row>
-    <row r="26" spans="1:102">
+    <row r="26" spans="1:103">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -8679,13 +8757,16 @@
         <v>0.3082253860809405</v>
       </c>
       <c r="CW26">
+        <v>0.4499967406990841</v>
+      </c>
+      <c r="CX26">
         <v>0.912180566717942</v>
       </c>
-      <c r="CX26">
+      <c r="CY26">
         <v>0.1579797558512525</v>
       </c>
     </row>
-    <row r="27" spans="1:102">
+    <row r="27" spans="1:103">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -8987,13 +9068,16 @@
         <v>0.06283332006411857</v>
       </c>
       <c r="CW27">
+        <v>0.07864959529062665</v>
+      </c>
+      <c r="CX27">
         <v>0.7464056972467832</v>
       </c>
-      <c r="CX27">
+      <c r="CY27">
         <v>0.07767877830727565</v>
       </c>
     </row>
-    <row r="28" spans="1:102">
+    <row r="28" spans="1:103">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -9295,13 +9379,16 @@
         <v>0.5054425853998776</v>
       </c>
       <c r="CW28">
+        <v>0.6032477572374366</v>
+      </c>
+      <c r="CX28">
         <v>0.9083512225960155</v>
       </c>
-      <c r="CX28">
+      <c r="CY28">
         <v>0.3813990433964524</v>
       </c>
     </row>
-    <row r="29" spans="1:102">
+    <row r="29" spans="1:103">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -9603,13 +9690,16 @@
         <v>0.2280408232186283</v>
       </c>
       <c r="CW29">
+        <v>0.3651061385231369</v>
+      </c>
+      <c r="CX29">
         <v>0.8315451650252103</v>
       </c>
-      <c r="CX29">
+      <c r="CY29">
         <v>0.1028098939665687</v>
       </c>
     </row>
-    <row r="30" spans="1:102">
+    <row r="30" spans="1:103">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -9911,13 +10001,16 @@
         <v>0.1449943325793382</v>
       </c>
       <c r="CW30">
+        <v>0.1296307502263037</v>
+      </c>
+      <c r="CX30">
         <v>0.3249579707724851</v>
       </c>
-      <c r="CX30">
+      <c r="CY30">
         <v>0.2475594851097916</v>
       </c>
     </row>
-    <row r="31" spans="1:102">
+    <row r="31" spans="1:103">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -10219,13 +10312,16 @@
         <v>0.4354218692213877</v>
       </c>
       <c r="CW31">
+        <v>0.3802815028301518</v>
+      </c>
+      <c r="CX31">
         <v>0.1627065731026421</v>
       </c>
-      <c r="CX31">
+      <c r="CY31">
         <v>0.5850101360249664</v>
       </c>
     </row>
-    <row r="32" spans="1:102">
+    <row r="32" spans="1:103">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -10527,13 +10623,16 @@
         <v>0.5367911615505345</v>
       </c>
       <c r="CW32">
+        <v>0.6387098187190656</v>
+      </c>
+      <c r="CX32">
         <v>0.9508079935920603</v>
       </c>
-      <c r="CX32">
+      <c r="CY32">
         <v>0.4052802759469938</v>
       </c>
     </row>
-    <row r="33" spans="1:102">
+    <row r="33" spans="1:103">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -10835,13 +10934,16 @@
         <v>0.3289784108699071</v>
       </c>
       <c r="CW33">
+        <v>0.4415955501650125</v>
+      </c>
+      <c r="CX33">
         <v>0.8597132309072408</v>
       </c>
-      <c r="CX33">
+      <c r="CY33">
         <v>0.2191461273594453</v>
       </c>
     </row>
-    <row r="34" spans="1:102">
+    <row r="34" spans="1:103">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -11143,13 +11245,16 @@
         <v>0.3808796137798988</v>
       </c>
       <c r="CW34">
+        <v>0.3702348626769858</v>
+      </c>
+      <c r="CX34">
         <v>0.3249732163049429</v>
       </c>
-      <c r="CX34">
+      <c r="CY34">
         <v>0.4755096354267795</v>
       </c>
     </row>
-    <row r="35" spans="1:102">
+    <row r="35" spans="1:103">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -11451,13 +11556,16 @@
         <v>0.3992838158747296</v>
       </c>
       <c r="CW35">
+        <v>0.3456561996947104</v>
+      </c>
+      <c r="CX35">
         <v>0.1540627755108955</v>
       </c>
-      <c r="CX35">
+      <c r="CY35">
         <v>0.5596598877115323</v>
       </c>
     </row>
-    <row r="36" spans="1:102">
+    <row r="36" spans="1:103">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -11759,13 +11867,16 @@
         <v>0.2122498738801658</v>
       </c>
       <c r="CW36">
+        <v>0.3484634929984273</v>
+      </c>
+      <c r="CX36">
         <v>0.8138561779324007</v>
       </c>
-      <c r="CX36">
+      <c r="CY36">
         <v>0.09051076530386071</v>
       </c>
     </row>
-    <row r="37" spans="1:102">
+    <row r="37" spans="1:103">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -12067,13 +12178,16 @@
         <v>0.6747350293477343</v>
       </c>
       <c r="CW37">
+        <v>0.7401174931244066</v>
+      </c>
+      <c r="CX37">
         <v>0.9317226879400538</v>
       </c>
-      <c r="CX37">
+      <c r="CY37">
         <v>0.5718948066273726</v>
       </c>
     </row>
-    <row r="38" spans="1:102">
+    <row r="38" spans="1:103">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -12375,13 +12489,16 @@
         <v>0.5738251473134321</v>
       </c>
       <c r="CW38">
+        <v>0.6370456570469133</v>
+      </c>
+      <c r="CX38">
         <v>0.8360471579486669</v>
       </c>
-      <c r="CX38">
+      <c r="CY38">
         <v>0.4884451479759718</v>
       </c>
     </row>
-    <row r="39" spans="1:102">
+    <row r="39" spans="1:103">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -12683,13 +12800,16 @@
         <v>0.2569472654066729</v>
       </c>
       <c r="CW39">
+        <v>0.4231705676426449</v>
+      </c>
+      <c r="CX39">
         <v>0.9130768128059989</v>
       </c>
-      <c r="CX39">
+      <c r="CY39">
         <v>0.1001562436385561</v>
       </c>
     </row>
-    <row r="40" spans="1:102">
+    <row r="40" spans="1:103">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -12991,13 +13111,16 @@
         <v>0.1726293733882401</v>
       </c>
       <c r="CW40">
+        <v>0.3087233563057699</v>
+      </c>
+      <c r="CX40">
         <v>0.7683931012679265</v>
       </c>
-      <c r="CX40">
+      <c r="CY40">
         <v>0.05884897529980071</v>
       </c>
     </row>
-    <row r="41" spans="1:102">
+    <row r="41" spans="1:103">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -13299,13 +13422,16 @@
         <v>0.1555448070933223</v>
       </c>
       <c r="CW41">
+        <v>0.1979019478749156</v>
+      </c>
+      <c r="CX41">
         <v>0.3861489493580732</v>
       </c>
-      <c r="CX41">
+      <c r="CY41">
         <v>0.1790836154913139</v>
       </c>
     </row>
-    <row r="42" spans="1:102">
+    <row r="42" spans="1:103">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -13607,13 +13733,16 @@
         <v>0.6760056254617184</v>
       </c>
       <c r="CW42">
+        <v>0.737022024209254</v>
+      </c>
+      <c r="CX42">
         <v>0.9341007803045881</v>
       </c>
-      <c r="CX42">
+      <c r="CY42">
         <v>0.5770495121830426</v>
       </c>
     </row>
-    <row r="43" spans="1:102">
+    <row r="43" spans="1:103">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -13915,13 +14044,16 @@
         <v>0.4927241317062467</v>
       </c>
       <c r="CW43">
+        <v>0.5339953353098497</v>
+      </c>
+      <c r="CX43">
         <v>0.4074106089327717</v>
       </c>
-      <c r="CX43">
+      <c r="CY43">
         <v>0.5606765212898385</v>
       </c>
     </row>
-    <row r="44" spans="1:102">
+    <row r="44" spans="1:103">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -14223,13 +14355,16 @@
         <v>0.4011596784840421</v>
       </c>
       <c r="CW44">
+        <v>0.5108379583985652</v>
+      </c>
+      <c r="CX44">
         <v>0.8877310690431168</v>
       </c>
-      <c r="CX44">
+      <c r="CY44">
         <v>0.2728617650280462</v>
       </c>
     </row>
-    <row r="45" spans="1:102">
+    <row r="45" spans="1:103">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -14531,13 +14666,16 @@
         <v>0.108181199838188</v>
       </c>
       <c r="CW45">
+        <v>0.2314668815006872</v>
+      </c>
+      <c r="CX45">
         <v>0.7758536911459868</v>
       </c>
-      <c r="CX45">
+      <c r="CY45">
         <v>0.02275466875376986</v>
       </c>
     </row>
-    <row r="46" spans="1:102">
+    <row r="46" spans="1:103">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -14839,13 +14977,16 @@
         <v>0.7657400162932446</v>
       </c>
       <c r="CW46">
+        <v>0.8034198443366218</v>
+      </c>
+      <c r="CX46">
         <v>0.9304800816456578</v>
       </c>
-      <c r="CX46">
+      <c r="CY46">
         <v>0.6848714700629326</v>
       </c>
     </row>
-    <row r="47" spans="1:102">
+    <row r="47" spans="1:103">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -15147,13 +15288,16 @@
         <v>0.1684587278079795</v>
       </c>
       <c r="CW47">
+        <v>0.3066763388390139</v>
+      </c>
+      <c r="CX47">
         <v>0.7914591943568094</v>
       </c>
-      <c r="CX47">
+      <c r="CY47">
         <v>0.05320799883015426</v>
       </c>
     </row>
-    <row r="48" spans="1:102">
+    <row r="48" spans="1:103">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -15455,13 +15599,16 @@
         <v>0.07255177284496372</v>
       </c>
       <c r="CW48">
+        <v>0.1527597738785004</v>
+      </c>
+      <c r="CX48">
         <v>0.4667933424015341</v>
       </c>
-      <c r="CX48">
+      <c r="CY48">
         <v>0.05940476137837103</v>
       </c>
     </row>
-    <row r="49" spans="1:102">
+    <row r="49" spans="1:103">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -15763,13 +15910,16 @@
         <v>0.359742541406144</v>
       </c>
       <c r="CW49">
+        <v>0.4382235043554632</v>
+      </c>
+      <c r="CX49">
         <v>0.2499660168492199</v>
       </c>
-      <c r="CX49">
+      <c r="CY49">
         <v>0.4346395737287329</v>
       </c>
     </row>
-    <row r="50" spans="1:102">
+    <row r="50" spans="1:103">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -16071,13 +16221,16 @@
         <v>0.2757713757759654</v>
       </c>
       <c r="CW50">
+        <v>0.4269118019348699</v>
+      </c>
+      <c r="CX50">
         <v>0.9006065133093987</v>
       </c>
-      <c r="CX50">
+      <c r="CY50">
         <v>0.1261198274539418</v>
       </c>
     </row>
-    <row r="51" spans="1:102">
+    <row r="51" spans="1:103">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -16379,13 +16532,16 @@
         <v>0.4577386366089272</v>
       </c>
       <c r="CW51">
+        <v>0.5367325497439035</v>
+      </c>
+      <c r="CX51">
         <v>0.8741657017928315</v>
       </c>
-      <c r="CX51">
+      <c r="CY51">
         <v>0.3560530400581022</v>
       </c>
     </row>
-    <row r="52" spans="1:102">
+    <row r="52" spans="1:103">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -16687,13 +16843,16 @@
         <v>0.8992299093104951</v>
       </c>
       <c r="CW52">
+        <v>0.8995960394958517</v>
+      </c>
+      <c r="CX52">
         <v>0.9320355277312611</v>
       </c>
-      <c r="CX52">
+      <c r="CY52">
         <v>0.8501842098730769</v>
       </c>
     </row>
-    <row r="53" spans="1:102">
+    <row r="53" spans="1:103">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -16995,13 +17154,16 @@
         <v>0.1300683705749938</v>
       </c>
       <c r="CW53">
+        <v>0.2628767328161379</v>
+      </c>
+      <c r="CX53">
         <v>0.7279970400272524</v>
       </c>
-      <c r="CX53">
+      <c r="CY53">
         <v>0.03122697043904255</v>
       </c>
     </row>
-    <row r="54" spans="1:102">
+    <row r="54" spans="1:103">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -17303,13 +17465,16 @@
         <v>0.3916402446357682</v>
       </c>
       <c r="CW54">
+        <v>0.3790591600740151</v>
+      </c>
+      <c r="CX54">
         <v>0.1166533120102274</v>
       </c>
-      <c r="CX54">
+      <c r="CY54">
         <v>0.5631922097307502</v>
       </c>
     </row>
-    <row r="55" spans="1:102">
+    <row r="55" spans="1:103">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -17611,13 +17776,16 @@
         <v>0.1131652485261424</v>
       </c>
       <c r="CW55">
+        <v>0.1236615387866342</v>
+      </c>
+      <c r="CX55">
         <v>0.2296226911071967</v>
       </c>
-      <c r="CX55">
+      <c r="CY55">
         <v>0.2223885740897309</v>
       </c>
     </row>
-    <row r="56" spans="1:102">
+    <row r="56" spans="1:103">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -17919,13 +18087,16 @@
         <v>0.354888649473353</v>
       </c>
       <c r="CW56">
+        <v>0.4852166711006488</v>
+      </c>
+      <c r="CX56">
         <v>0.906240754978682</v>
       </c>
-      <c r="CX56">
+      <c r="CY56">
         <v>0.2133746181419983</v>
       </c>
     </row>
-    <row r="57" spans="1:102">
+    <row r="57" spans="1:103">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -18227,13 +18398,16 @@
         <v>0.1710089384576635</v>
       </c>
       <c r="CW57">
+        <v>0.3296026410777144</v>
+      </c>
+      <c r="CX57">
         <v>0.8854988720816915</v>
       </c>
-      <c r="CX57">
+      <c r="CY57">
         <v>0.03723175635522902</v>
       </c>
     </row>
-    <row r="58" spans="1:102">
+    <row r="58" spans="1:103">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -18535,13 +18709,16 @@
         <v>0.9100060983451264</v>
       </c>
       <c r="CW58">
+        <v>0.9221841543616934</v>
+      </c>
+      <c r="CX58">
         <v>0.9557899862098312</v>
       </c>
-      <c r="CX58">
+      <c r="CY58">
         <v>0.8498093143806957</v>
       </c>
     </row>
-    <row r="59" spans="1:102">
+    <row r="59" spans="1:103">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -18843,13 +19020,16 @@
         <v>0.2029471850493003</v>
       </c>
       <c r="CW59">
+        <v>0.3344213555984132</v>
+      </c>
+      <c r="CX59">
         <v>0.8064938962833083</v>
       </c>
-      <c r="CX59">
+      <c r="CY59">
         <v>0.0863214473988122</v>
       </c>
     </row>
-    <row r="60" spans="1:102">
+    <row r="60" spans="1:103">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -19151,13 +19331,16 @@
         <v>0.2691997646629082</v>
       </c>
       <c r="CW60">
+        <v>0.1274063743646902</v>
+      </c>
+      <c r="CX60">
         <v>0.5376405894297536</v>
       </c>
-      <c r="CX60">
+      <c r="CY60">
         <v>0.4453672542926355</v>
       </c>
     </row>
-    <row r="61" spans="1:102">
+    <row r="61" spans="1:103">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -19459,13 +19642,16 @@
         <v>0.5016478757247126</v>
       </c>
       <c r="CW61">
+        <v>0.5135458830206567</v>
+      </c>
+      <c r="CX61">
         <v>0.3464442082990139</v>
       </c>
-      <c r="CX61">
+      <c r="CY61">
         <v>0.5916910581281145</v>
       </c>
     </row>
-    <row r="62" spans="1:102">
+    <row r="62" spans="1:103">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -19767,13 +19953,16 @@
         <v>0.2497323019413253</v>
       </c>
       <c r="CW62">
+        <v>0.3881185373016036</v>
+      </c>
+      <c r="CX62">
         <v>0.8490904357496496</v>
       </c>
-      <c r="CX62">
+      <c r="CY62">
         <v>0.1137831373215834</v>
       </c>
     </row>
-    <row r="63" spans="1:102">
+    <row r="63" spans="1:103">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -20075,13 +20264,16 @@
         <v>0.1960602798779069</v>
       </c>
       <c r="CW63">
+        <v>0.3666823936841075</v>
+      </c>
+      <c r="CX63">
         <v>0.922774668372183</v>
       </c>
-      <c r="CX63">
+      <c r="CY63">
         <v>0.0530643918005631</v>
       </c>
     </row>
-    <row r="64" spans="1:102">
+    <row r="64" spans="1:103">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -20383,13 +20575,16 @@
         <v>0.103978046827337</v>
       </c>
       <c r="CW64">
+        <v>0.1423310002358416</v>
+      </c>
+      <c r="CX64">
         <v>0.5979373936085562</v>
       </c>
-      <c r="CX64">
+      <c r="CY64">
         <v>0.1037312861244577</v>
       </c>
     </row>
-    <row r="65" spans="1:102">
+    <row r="65" spans="1:103">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -20691,13 +20886,16 @@
         <v>0.24079764678664</v>
       </c>
       <c r="CW65">
+        <v>0.2555788438140518</v>
+      </c>
+      <c r="CX65">
         <v>0.1632193360734904</v>
       </c>
-      <c r="CX65">
+      <c r="CY65">
         <v>0.3890407502809615</v>
       </c>
     </row>
-    <row r="66" spans="1:102">
+    <row r="66" spans="1:103">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
@@ -20999,13 +21197,16 @@
         <v>0.862718949318666</v>
       </c>
       <c r="CW66">
+        <v>0.8941982941328219</v>
+      </c>
+      <c r="CX66">
         <v>0.967844769950913</v>
       </c>
-      <c r="CX66">
+      <c r="CY66">
         <v>0.7828971215214626</v>
       </c>
     </row>
-    <row r="67" spans="1:102">
+    <row r="67" spans="1:103">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -21307,13 +21508,16 @@
         <v>0.4440187112260663</v>
       </c>
       <c r="CW67">
+        <v>0.5400156066850375</v>
+      </c>
+      <c r="CX67">
         <v>0.8772092763784113</v>
       </c>
-      <c r="CX67">
+      <c r="CY67">
         <v>0.3287466477855773</v>
       </c>
     </row>
-    <row r="68" spans="1:102">
+    <row r="68" spans="1:103">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
@@ -21615,13 +21819,16 @@
         <v>0.5212802256273219</v>
       </c>
       <c r="CW68">
+        <v>0.6130030368256424</v>
+      </c>
+      <c r="CX68">
         <v>0.8892723362066594</v>
       </c>
-      <c r="CX68">
+      <c r="CY68">
         <v>0.4059974287590461</v>
       </c>
     </row>
-    <row r="69" spans="1:102">
+    <row r="69" spans="1:103">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -21923,13 +22130,16 @@
         <v>0.4974606002937219</v>
       </c>
       <c r="CW69">
+        <v>0.5719727544021365</v>
+      </c>
+      <c r="CX69">
         <v>0.8571154494628238</v>
       </c>
-      <c r="CX69">
+      <c r="CY69">
         <v>0.3984727910008785</v>
       </c>
     </row>
-    <row r="70" spans="1:102">
+    <row r="70" spans="1:103">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -22231,13 +22441,16 @@
         <v>0.4642645022735356</v>
       </c>
       <c r="CW70">
+        <v>0.4220294940390018</v>
+      </c>
+      <c r="CX70">
         <v>0.2224165227135855</v>
       </c>
-      <c r="CX70">
+      <c r="CY70">
         <v>0.6167484925993201</v>
       </c>
     </row>
-    <row r="71" spans="1:102">
+    <row r="71" spans="1:103">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -22539,13 +22752,16 @@
         <v>0.4760764044362756</v>
       </c>
       <c r="CW71">
+        <v>0.5673739899913992</v>
+      </c>
+      <c r="CX71">
         <v>0.8608523810414047</v>
       </c>
-      <c r="CX71">
+      <c r="CY71">
         <v>0.3647283802703462</v>
       </c>
     </row>
-    <row r="72" spans="1:102">
+    <row r="72" spans="1:103">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -22847,13 +23063,16 @@
         <v>0.03239307560788207</v>
       </c>
       <c r="CW72">
+        <v>0.06903184296493881</v>
+      </c>
+      <c r="CX72">
         <v>0.5437398520648119</v>
       </c>
-      <c r="CX72">
+      <c r="CY72">
         <v>0.06863413198608781</v>
       </c>
     </row>
-    <row r="73" spans="1:102">
+    <row r="73" spans="1:103">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -23155,13 +23374,16 @@
         <v>0.3529175041899765</v>
       </c>
       <c r="CW73">
+        <v>0.4816548948646727</v>
+      </c>
+      <c r="CX73">
         <v>0.8564083352715381</v>
       </c>
-      <c r="CX73">
+      <c r="CY73">
         <v>0.2202199803353606</v>
       </c>
     </row>
-    <row r="74" spans="1:102">
+    <row r="74" spans="1:103">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -23463,13 +23685,16 @@
         <v>0.5816768766592133</v>
       </c>
       <c r="CW74">
+        <v>0.6432058784345851</v>
+      </c>
+      <c r="CX74">
         <v>0.8643513535017158</v>
       </c>
-      <c r="CX74">
+      <c r="CY74">
         <v>0.4941686888936524</v>
       </c>
     </row>
-    <row r="75" spans="1:102">
+    <row r="75" spans="1:103">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -23771,13 +23996,16 @@
         <v>0.8309168181220677</v>
       </c>
       <c r="CW75">
+        <v>0.8583280546896368</v>
+      </c>
+      <c r="CX75">
         <v>0.9528108966623188</v>
       </c>
-      <c r="CX75">
+      <c r="CY75">
         <v>0.756660714971951</v>
       </c>
     </row>
-    <row r="76" spans="1:102">
+    <row r="76" spans="1:103">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -24079,13 +24307,16 @@
         <v>0.3208925860373404</v>
       </c>
       <c r="CW76">
+        <v>0.3868850976516365</v>
+      </c>
+      <c r="CX76">
         <v>0.2990491456500216</v>
       </c>
-      <c r="CX76">
+      <c r="CY76">
         <v>0.431733054838892</v>
       </c>
     </row>
-    <row r="77" spans="1:102">
+    <row r="77" spans="1:103">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -24387,13 +24618,16 @@
         <v>0.2906843208928024</v>
       </c>
       <c r="CW77">
+        <v>0.2442753484474277</v>
+      </c>
+      <c r="CX77">
         <v>0.06945612565130543</v>
       </c>
-      <c r="CX77">
+      <c r="CY77">
         <v>0.4903139471012793</v>
       </c>
     </row>
-    <row r="78" spans="1:102">
+    <row r="78" spans="1:103">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -24695,13 +24929,16 @@
         <v>0.2019770165423531</v>
       </c>
       <c r="CW78">
+        <v>0.3643160201333804</v>
+      </c>
+      <c r="CX78">
         <v>0.9091739207945024</v>
       </c>
-      <c r="CX78">
+      <c r="CY78">
         <v>0.05203675761944648</v>
       </c>
     </row>
-    <row r="79" spans="1:102">
+    <row r="79" spans="1:103">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -25003,13 +25240,16 @@
         <v>0.2043097832923964</v>
       </c>
       <c r="CW79">
+        <v>0.09147949368192743</v>
+      </c>
+      <c r="CX79">
         <v>0.4486598127204505</v>
       </c>
-      <c r="CX79">
+      <c r="CY79">
         <v>0.3655569448527545</v>
       </c>
     </row>
-    <row r="80" spans="1:102">
+    <row r="80" spans="1:103">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -25311,13 +25551,16 @@
         <v>0.6843939615781675</v>
       </c>
       <c r="CW80">
+        <v>0.7043709905446063</v>
+      </c>
+      <c r="CX80">
         <v>0.5149441184021557</v>
       </c>
-      <c r="CX80">
+      <c r="CY80">
         <v>0.7167322851004427</v>
       </c>
     </row>
-    <row r="81" spans="1:102">
+    <row r="81" spans="1:103">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -25619,13 +25862,16 @@
         <v>0.5089061871645966</v>
       </c>
       <c r="CW81">
+        <v>0.4723838988694368</v>
+      </c>
+      <c r="CX81">
         <v>0.1568504576971094</v>
       </c>
-      <c r="CX81">
+      <c r="CY81">
         <v>0.620560728983669</v>
       </c>
     </row>
-    <row r="82" spans="1:102">
+    <row r="82" spans="1:103">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -25927,13 +26173,16 @@
         <v>0.6369740598809219</v>
       </c>
       <c r="CW82">
+        <v>0.6932534212894981</v>
+      </c>
+      <c r="CX82">
         <v>0.8803415795479719</v>
       </c>
-      <c r="CX82">
+      <c r="CY82">
         <v>0.550045527639851</v>
       </c>
     </row>
-    <row r="83" spans="1:102">
+    <row r="83" spans="1:103">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -26235,13 +26484,16 @@
         <v>0.5887394999762794</v>
       </c>
       <c r="CW83">
+        <v>0.6773190414861352</v>
+      </c>
+      <c r="CX83">
         <v>0.9578001676670059</v>
       </c>
-      <c r="CX83">
+      <c r="CY83">
         <v>0.4645062997513915</v>
       </c>
     </row>
-    <row r="84" spans="1:102">
+    <row r="84" spans="1:103">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
@@ -26543,13 +26795,16 @@
         <v>0.8106094921689689</v>
       </c>
       <c r="CW84">
+        <v>0.8408280545206968</v>
+      </c>
+      <c r="CX84">
         <v>0.934778526821884</v>
       </c>
-      <c r="CX84">
+      <c r="CY84">
         <v>0.7386734874040803</v>
       </c>
     </row>
-    <row r="85" spans="1:102">
+    <row r="85" spans="1:103">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
@@ -26851,13 +27106,16 @@
         <v>0.4509530165957366</v>
       </c>
       <c r="CW85">
+        <v>0.4419913084889783</v>
+      </c>
+      <c r="CX85">
         <v>0.380688151429688</v>
       </c>
-      <c r="CX85">
+      <c r="CY85">
         <v>0.5223223281334368</v>
       </c>
     </row>
-    <row r="86" spans="1:102">
+    <row r="86" spans="1:103">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -27159,13 +27417,16 @@
         <v>0.030782731655837</v>
       </c>
       <c r="CW86">
+        <v>0.1037018175405279</v>
+      </c>
+      <c r="CX86">
         <v>0.496625875639351</v>
       </c>
-      <c r="CX86">
+      <c r="CY86">
         <v>0.04763556468297403</v>
       </c>
     </row>
-    <row r="87" spans="1:102">
+    <row r="87" spans="1:103">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
@@ -27467,13 +27728,16 @@
         <v>0.8170077784421192</v>
       </c>
       <c r="CW87">
+        <v>0.8407392076421312</v>
+      </c>
+      <c r="CX87">
         <v>0.9142056993068969</v>
       </c>
-      <c r="CX87">
+      <c r="CY87">
         <v>0.7526051423459068</v>
       </c>
     </row>
-    <row r="88" spans="1:102">
+    <row r="88" spans="1:103">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
@@ -27775,13 +28039,16 @@
         <v>0.2324395076681637</v>
       </c>
       <c r="CW88">
+        <v>0.3765825504559011</v>
+      </c>
+      <c r="CX88">
         <v>0.8767187708380997</v>
       </c>
-      <c r="CX88">
+      <c r="CY88">
         <v>0.09361864413046328</v>
       </c>
     </row>
-    <row r="89" spans="1:102">
+    <row r="89" spans="1:103">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
@@ -28083,13 +28350,16 @@
         <v>0.4284214858042441</v>
       </c>
       <c r="CW89">
+        <v>0.3751933422488671</v>
+      </c>
+      <c r="CX89">
         <v>0.1823277093389725</v>
       </c>
-      <c r="CX89">
+      <c r="CY89">
         <v>0.6589681890920105</v>
       </c>
     </row>
-    <row r="90" spans="1:102">
+    <row r="90" spans="1:103">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
@@ -28391,13 +28661,16 @@
         <v>0.626910633316094</v>
       </c>
       <c r="CW90">
+        <v>0.6800888983988711</v>
+      </c>
+      <c r="CX90">
         <v>0.8661902676070681</v>
       </c>
-      <c r="CX90">
+      <c r="CY90">
         <v>0.545301830787412</v>
       </c>
     </row>
-    <row r="91" spans="1:102">
+    <row r="91" spans="1:103">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
@@ -28699,13 +28972,16 @@
         <v>0.2039070892483514</v>
       </c>
       <c r="CW91">
+        <v>0.08221955424579175</v>
+      </c>
+      <c r="CX91">
         <v>0.4162264963896939</v>
       </c>
-      <c r="CX91">
+      <c r="CY91">
         <v>0.3781617084339077</v>
       </c>
     </row>
-    <row r="92" spans="1:102">
+    <row r="92" spans="1:103">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
@@ -29007,13 +29283,16 @@
         <v>0.07783084322564537</v>
       </c>
       <c r="CW92">
+        <v>0.1881899112370654</v>
+      </c>
+      <c r="CX92">
         <v>0.3411987903762405</v>
       </c>
-      <c r="CX92">
+      <c r="CY92">
         <v>0.1163445424986775</v>
       </c>
     </row>
-    <row r="93" spans="1:102">
+    <row r="93" spans="1:103">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -29315,13 +29594,16 @@
         <v>0.4433770765915002</v>
       </c>
       <c r="CW93">
+        <v>0.3909054445219944</v>
+      </c>
+      <c r="CX93">
         <v>0.1660839450559118</v>
       </c>
-      <c r="CX93">
+      <c r="CY93">
         <v>0.667841464610447</v>
       </c>
     </row>
-    <row r="94" spans="1:102">
+    <row r="94" spans="1:103">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
@@ -29623,13 +29905,16 @@
         <v>0.1856471879474786</v>
       </c>
       <c r="CW94">
+        <v>0.08873917466765546</v>
+      </c>
+      <c r="CX94">
         <v>0.3687452176756412</v>
       </c>
-      <c r="CX94">
+      <c r="CY94">
         <v>0.3477525661406886</v>
       </c>
     </row>
-    <row r="95" spans="1:102">
+    <row r="95" spans="1:103">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
@@ -29931,13 +30216,16 @@
         <v>0.3141227955864528</v>
       </c>
       <c r="CW95">
+        <v>0.168799424759052</v>
+      </c>
+      <c r="CX95">
         <v>0.3272723698040918</v>
       </c>
-      <c r="CX95">
+      <c r="CY95">
         <v>0.5592972927211903</v>
       </c>
     </row>
-    <row r="96" spans="1:102">
+    <row r="96" spans="1:103">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
@@ -30239,13 +30527,16 @@
         <v>0.1534927996913709</v>
       </c>
       <c r="CW96">
+        <v>0.1626683442687249</v>
+      </c>
+      <c r="CX96">
         <v>0.4111153538462401</v>
       </c>
-      <c r="CX96">
+      <c r="CY96">
         <v>0.2044258980659116</v>
       </c>
     </row>
-    <row r="97" spans="1:102">
+    <row r="97" spans="1:103">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -30547,13 +30838,16 @@
         <v>0.5153680292817054</v>
       </c>
       <c r="CW97">
+        <v>0.5657525577404288</v>
+      </c>
+      <c r="CX97">
         <v>0.393791234962214</v>
       </c>
-      <c r="CX97">
+      <c r="CY97">
         <v>0.6431276271516537</v>
       </c>
     </row>
-    <row r="98" spans="1:102">
+    <row r="98" spans="1:103">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
@@ -30855,13 +31149,16 @@
         <v>0.2346526994968718</v>
       </c>
       <c r="CW98">
+        <v>0.1253128454976878</v>
+      </c>
+      <c r="CX98">
         <v>0.2370841714533997</v>
       </c>
-      <c r="CX98">
+      <c r="CY98">
         <v>0.4595960944238712</v>
       </c>
     </row>
-    <row r="99" spans="1:102">
+    <row r="99" spans="1:103">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -31163,13 +31460,16 @@
         <v>0.1358279767748622</v>
       </c>
       <c r="CW99">
+        <v>0.08976697958125557</v>
+      </c>
+      <c r="CX99">
         <v>0.3446341131355508</v>
       </c>
-      <c r="CX99">
+      <c r="CY99">
         <v>0.2570816506834043</v>
       </c>
     </row>
-    <row r="100" spans="1:102">
+    <row r="100" spans="1:103">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
@@ -31471,625 +31771,945 @@
         <v>0</v>
       </c>
       <c r="CW100">
+        <v>0.05532245949092396</v>
+      </c>
+      <c r="CX100">
         <v>0.499751923211791</v>
       </c>
-      <c r="CX100">
+      <c r="CY100">
         <v>0.06995623645607529</v>
       </c>
     </row>
-    <row r="101" spans="1:102">
+    <row r="101" spans="1:103">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.9211559020939926</v>
+        <v>0.3817707094644861</v>
       </c>
       <c r="C101">
-        <v>0.7976804759625967</v>
+        <v>0.3113289338968686</v>
       </c>
       <c r="D101">
-        <v>0.9282222882557687</v>
+        <v>0.7533536324111988</v>
       </c>
       <c r="E101">
-        <v>0.1460823924199414</v>
+        <v>0.446378653281403</v>
       </c>
       <c r="F101">
-        <v>0.3118797737602405</v>
+        <v>0.3848010597397604</v>
       </c>
       <c r="G101">
-        <v>0.7996701674281622</v>
+        <v>0.3252208358715842</v>
       </c>
       <c r="H101">
-        <v>0.8883994553441639</v>
+        <v>0.463793403370417</v>
       </c>
       <c r="I101">
-        <v>0.8906158908605828</v>
+        <v>0.3628097746322285</v>
       </c>
       <c r="J101">
-        <v>0.2215743076622185</v>
+        <v>0.4132791601994933</v>
       </c>
       <c r="K101">
-        <v>0.9509026185337128</v>
+        <v>0.8569180664922864</v>
       </c>
       <c r="L101">
-        <v>0.7940630753570177</v>
+        <v>0.3049103013793519</v>
       </c>
       <c r="M101">
-        <v>0.5205242995591757</v>
+        <v>0.335445223344188</v>
       </c>
       <c r="N101">
-        <v>0.8444369945844781</v>
+        <v>0.4137199410596093</v>
       </c>
       <c r="O101">
-        <v>0.9042113275924095</v>
+        <v>0.3833527172551173</v>
       </c>
       <c r="P101">
-        <v>0.1606285806864001</v>
+        <v>0.4497834377501214</v>
       </c>
       <c r="Q101">
-        <v>0.9493486173859761</v>
+        <v>0.9087061467432609</v>
       </c>
       <c r="R101">
-        <v>0.7582469364767623</v>
+        <v>0.4425856685175693</v>
       </c>
       <c r="S101">
-        <v>0.8169635615019292</v>
+        <v>0.4237195809565891</v>
       </c>
       <c r="T101">
-        <v>0.8947376794257452</v>
+        <v>0.581814797589997</v>
       </c>
       <c r="U101">
-        <v>0.8806752215064313</v>
+        <v>0.345547153545811</v>
       </c>
       <c r="V101">
-        <v>0.429802676381675</v>
+        <v>0.02787064400809514</v>
       </c>
       <c r="W101">
-        <v>0.163545477832536</v>
+        <v>0.2242783060991963</v>
       </c>
       <c r="X101">
-        <v>0.7217974769794719</v>
+        <v>0.2756591035385608</v>
       </c>
       <c r="Y101">
-        <v>0.8060287174965232</v>
+        <v>0.3842625957746377</v>
       </c>
       <c r="Z101">
-        <v>0.912180566717942</v>
+        <v>0.4499967406990841</v>
       </c>
       <c r="AA101">
-        <v>0.7464056972467832</v>
+        <v>0.07864959529062665</v>
       </c>
       <c r="AB101">
-        <v>0.9083512225960155</v>
+        <v>0.6032477572374366</v>
       </c>
       <c r="AC101">
-        <v>0.8315451650252103</v>
+        <v>0.3651061385231369</v>
       </c>
       <c r="AD101">
-        <v>0.3249579707724851</v>
+        <v>0.1296307502263037</v>
       </c>
       <c r="AE101">
-        <v>0.1627065731026421</v>
+        <v>0.3802815028301518</v>
       </c>
       <c r="AF101">
-        <v>0.9508079935920603</v>
+        <v>0.6387098187190656</v>
       </c>
       <c r="AG101">
-        <v>0.8597132309072408</v>
+        <v>0.4415955501650125</v>
       </c>
       <c r="AH101">
-        <v>0.3249732163049429</v>
+        <v>0.3702348626769858</v>
       </c>
       <c r="AI101">
-        <v>0.1540627755108955</v>
+        <v>0.3456561996947104</v>
       </c>
       <c r="AJ101">
-        <v>0.8138561779324007</v>
+        <v>0.3484634929984273</v>
       </c>
       <c r="AK101">
-        <v>0.9317226879400538</v>
+        <v>0.7401174931244066</v>
       </c>
       <c r="AL101">
-        <v>0.8360471579486669</v>
+        <v>0.6370456570469133</v>
       </c>
       <c r="AM101">
-        <v>0.9130768128059989</v>
+        <v>0.4231705676426449</v>
       </c>
       <c r="AN101">
-        <v>0.7683931012679265</v>
+        <v>0.3087233563057699</v>
       </c>
       <c r="AO101">
-        <v>0.3861489493580732</v>
+        <v>0.1979019478749156</v>
       </c>
       <c r="AP101">
-        <v>0.9341007803045881</v>
+        <v>0.737022024209254</v>
       </c>
       <c r="AQ101">
-        <v>0.4074106089327717</v>
+        <v>0.5339953353098497</v>
       </c>
       <c r="AR101">
-        <v>0.8877310690431168</v>
+        <v>0.5108379583985652</v>
       </c>
       <c r="AS101">
-        <v>0.7758536911459868</v>
+        <v>0.2314668815006872</v>
       </c>
       <c r="AT101">
-        <v>0.9304800816456578</v>
+        <v>0.8034198443366218</v>
       </c>
       <c r="AU101">
-        <v>0.7914591943568094</v>
+        <v>0.3066763388390139</v>
       </c>
       <c r="AV101">
-        <v>0.4667933424015341</v>
+        <v>0.1527597738785004</v>
       </c>
       <c r="AW101">
-        <v>0.2499660168492199</v>
+        <v>0.4382235043554632</v>
       </c>
       <c r="AX101">
-        <v>0.9006065133093987</v>
+        <v>0.4269118019348699</v>
       </c>
       <c r="AY101">
-        <v>0.8741657017928315</v>
+        <v>0.5367325497439035</v>
       </c>
       <c r="AZ101">
-        <v>0.9320355277312611</v>
+        <v>0.8995960394958517</v>
       </c>
       <c r="BA101">
-        <v>0.7279970400272524</v>
+        <v>0.2628767328161379</v>
       </c>
       <c r="BB101">
-        <v>0.1166533120102274</v>
+        <v>0.3790591600740151</v>
       </c>
       <c r="BC101">
-        <v>0.2296226911071967</v>
+        <v>0.1236615387866342</v>
       </c>
       <c r="BD101">
-        <v>0.906240754978682</v>
+        <v>0.4852166711006488</v>
       </c>
       <c r="BE101">
-        <v>0.8854988720816915</v>
+        <v>0.3296026410777144</v>
       </c>
       <c r="BF101">
-        <v>0.9557899862098312</v>
+        <v>0.9221841543616934</v>
       </c>
       <c r="BG101">
-        <v>0.8064938962833083</v>
+        <v>0.3344213555984132</v>
       </c>
       <c r="BH101">
-        <v>0.5376405894297536</v>
+        <v>0.1274063743646902</v>
       </c>
       <c r="BI101">
-        <v>0.3464442082990139</v>
+        <v>0.5135458830206567</v>
       </c>
       <c r="BJ101">
-        <v>0.8490904357496496</v>
+        <v>0.3881185373016036</v>
       </c>
       <c r="BK101">
-        <v>0.922774668372183</v>
+        <v>0.3666823936841075</v>
       </c>
       <c r="BL101">
-        <v>0.5979373936085562</v>
+        <v>0.1423310002358416</v>
       </c>
       <c r="BM101">
-        <v>0.1632193360734904</v>
+        <v>0.2555788438140518</v>
       </c>
       <c r="BN101">
-        <v>0.967844769950913</v>
+        <v>0.8941982941328219</v>
       </c>
       <c r="BO101">
-        <v>0.8772092763784113</v>
+        <v>0.5400156066850375</v>
       </c>
       <c r="BP101">
-        <v>0.8892723362066594</v>
+        <v>0.6130030368256424</v>
       </c>
       <c r="BQ101">
-        <v>0.8571154494628238</v>
+        <v>0.5719727544021365</v>
       </c>
       <c r="BR101">
-        <v>0.2224165227135855</v>
+        <v>0.4220294940390018</v>
       </c>
       <c r="BS101">
-        <v>0.8608523810414047</v>
+        <v>0.5673739899913992</v>
       </c>
       <c r="BT101">
-        <v>0.5437398520648119</v>
+        <v>0.06903184296493881</v>
       </c>
       <c r="BU101">
-        <v>0.8564083352715381</v>
+        <v>0.4816548948646727</v>
       </c>
       <c r="BV101">
-        <v>0.8643513535017158</v>
+        <v>0.6432058784345851</v>
       </c>
       <c r="BW101">
-        <v>0.9528108966623188</v>
+        <v>0.8583280546896368</v>
       </c>
       <c r="BX101">
-        <v>0.2990491456500216</v>
+        <v>0.3868850976516365</v>
       </c>
       <c r="BY101">
-        <v>0.06945612565130543</v>
+        <v>0.2442753484474277</v>
       </c>
       <c r="BZ101">
-        <v>0.9091739207945024</v>
+        <v>0.3643160201333804</v>
       </c>
       <c r="CA101">
-        <v>0.4486598127204505</v>
+        <v>0.09147949368192743</v>
       </c>
       <c r="CB101">
-        <v>0.5149441184021557</v>
+        <v>0.7043709905446063</v>
       </c>
       <c r="CC101">
-        <v>0.1568504576971094</v>
+        <v>0.4723838988694368</v>
       </c>
       <c r="CD101">
-        <v>0.8803415795479719</v>
+        <v>0.6932534212894981</v>
       </c>
       <c r="CE101">
-        <v>0.9578001676670059</v>
+        <v>0.6773190414861352</v>
       </c>
       <c r="CF101">
-        <v>0.934778526821884</v>
+        <v>0.8408280545206968</v>
       </c>
       <c r="CG101">
-        <v>0.380688151429688</v>
+        <v>0.4419913084889783</v>
       </c>
       <c r="CH101">
-        <v>0.496625875639351</v>
+        <v>0.1037018175405279</v>
       </c>
       <c r="CI101">
-        <v>0.9142056993068969</v>
+        <v>0.8407392076421312</v>
       </c>
       <c r="CJ101">
-        <v>0.8767187708380997</v>
+        <v>0.3765825504559011</v>
       </c>
       <c r="CK101">
-        <v>0.1823277093389725</v>
+        <v>0.3751933422488671</v>
       </c>
       <c r="CL101">
-        <v>0.8661902676070681</v>
+        <v>0.6800888983988711</v>
       </c>
       <c r="CM101">
-        <v>0.4162264963896939</v>
+        <v>0.08221955424579175</v>
       </c>
       <c r="CN101">
-        <v>0.3411987903762405</v>
+        <v>0.1881899112370654</v>
       </c>
       <c r="CO101">
-        <v>0.1660839450559118</v>
+        <v>0.3909054445219944</v>
       </c>
       <c r="CP101">
-        <v>0.3687452176756412</v>
+        <v>0.08873917466765546</v>
       </c>
       <c r="CQ101">
-        <v>0.3272723698040918</v>
+        <v>0.168799424759052</v>
       </c>
       <c r="CR101">
-        <v>0.4111153538462401</v>
+        <v>0.1626683442687249</v>
       </c>
       <c r="CS101">
-        <v>0.393791234962214</v>
+        <v>0.5657525577404288</v>
       </c>
       <c r="CT101">
-        <v>0.2370841714533997</v>
+        <v>0.1253128454976878</v>
       </c>
       <c r="CU101">
-        <v>0.3446341131355508</v>
+        <v>0.08976697958125557</v>
       </c>
       <c r="CV101">
-        <v>0.499751923211791</v>
+        <v>0.05532245949092396</v>
       </c>
       <c r="CW101">
         <v>0</v>
       </c>
       <c r="CX101">
-        <v>0.6664917458837278</v>
+        <v>0.47202736396824</v>
+      </c>
+      <c r="CY101">
+        <v>0.1886194695528278</v>
       </c>
     </row>
-    <row r="102" spans="1:102">
+    <row r="102" spans="1:103">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B102">
+        <v>0.9211559020939926</v>
+      </c>
+      <c r="C102">
+        <v>0.7976804759625967</v>
+      </c>
+      <c r="D102">
+        <v>0.9282222882557687</v>
+      </c>
+      <c r="E102">
+        <v>0.1460823924199414</v>
+      </c>
+      <c r="F102">
+        <v>0.3118797737602405</v>
+      </c>
+      <c r="G102">
+        <v>0.7996701674281622</v>
+      </c>
+      <c r="H102">
+        <v>0.8883994553441639</v>
+      </c>
+      <c r="I102">
+        <v>0.8906158908605828</v>
+      </c>
+      <c r="J102">
+        <v>0.2215743076622185</v>
+      </c>
+      <c r="K102">
+        <v>0.9509026185337128</v>
+      </c>
+      <c r="L102">
+        <v>0.7940630753570177</v>
+      </c>
+      <c r="M102">
+        <v>0.5205242995591757</v>
+      </c>
+      <c r="N102">
+        <v>0.8444369945844781</v>
+      </c>
+      <c r="O102">
+        <v>0.9042113275924095</v>
+      </c>
+      <c r="P102">
+        <v>0.1606285806864001</v>
+      </c>
+      <c r="Q102">
+        <v>0.9493486173859761</v>
+      </c>
+      <c r="R102">
+        <v>0.7582469364767623</v>
+      </c>
+      <c r="S102">
+        <v>0.8169635615019292</v>
+      </c>
+      <c r="T102">
+        <v>0.8947376794257452</v>
+      </c>
+      <c r="U102">
+        <v>0.8806752215064313</v>
+      </c>
+      <c r="V102">
+        <v>0.429802676381675</v>
+      </c>
+      <c r="W102">
+        <v>0.163545477832536</v>
+      </c>
+      <c r="X102">
+        <v>0.7217974769794719</v>
+      </c>
+      <c r="Y102">
+        <v>0.8060287174965232</v>
+      </c>
+      <c r="Z102">
+        <v>0.912180566717942</v>
+      </c>
+      <c r="AA102">
+        <v>0.7464056972467832</v>
+      </c>
+      <c r="AB102">
+        <v>0.9083512225960155</v>
+      </c>
+      <c r="AC102">
+        <v>0.8315451650252103</v>
+      </c>
+      <c r="AD102">
+        <v>0.3249579707724851</v>
+      </c>
+      <c r="AE102">
+        <v>0.1627065731026421</v>
+      </c>
+      <c r="AF102">
+        <v>0.9508079935920603</v>
+      </c>
+      <c r="AG102">
+        <v>0.8597132309072408</v>
+      </c>
+      <c r="AH102">
+        <v>0.3249732163049429</v>
+      </c>
+      <c r="AI102">
+        <v>0.1540627755108955</v>
+      </c>
+      <c r="AJ102">
+        <v>0.8138561779324007</v>
+      </c>
+      <c r="AK102">
+        <v>0.9317226879400538</v>
+      </c>
+      <c r="AL102">
+        <v>0.8360471579486669</v>
+      </c>
+      <c r="AM102">
+        <v>0.9130768128059989</v>
+      </c>
+      <c r="AN102">
+        <v>0.7683931012679265</v>
+      </c>
+      <c r="AO102">
+        <v>0.3861489493580732</v>
+      </c>
+      <c r="AP102">
+        <v>0.9341007803045881</v>
+      </c>
+      <c r="AQ102">
+        <v>0.4074106089327717</v>
+      </c>
+      <c r="AR102">
+        <v>0.8877310690431168</v>
+      </c>
+      <c r="AS102">
+        <v>0.7758536911459868</v>
+      </c>
+      <c r="AT102">
+        <v>0.9304800816456578</v>
+      </c>
+      <c r="AU102">
+        <v>0.7914591943568094</v>
+      </c>
+      <c r="AV102">
+        <v>0.4667933424015341</v>
+      </c>
+      <c r="AW102">
+        <v>0.2499660168492199</v>
+      </c>
+      <c r="AX102">
+        <v>0.9006065133093987</v>
+      </c>
+      <c r="AY102">
+        <v>0.8741657017928315</v>
+      </c>
+      <c r="AZ102">
+        <v>0.9320355277312611</v>
+      </c>
+      <c r="BA102">
+        <v>0.7279970400272524</v>
+      </c>
+      <c r="BB102">
+        <v>0.1166533120102274</v>
+      </c>
+      <c r="BC102">
+        <v>0.2296226911071967</v>
+      </c>
+      <c r="BD102">
+        <v>0.906240754978682</v>
+      </c>
+      <c r="BE102">
+        <v>0.8854988720816915</v>
+      </c>
+      <c r="BF102">
+        <v>0.9557899862098312</v>
+      </c>
+      <c r="BG102">
+        <v>0.8064938962833083</v>
+      </c>
+      <c r="BH102">
+        <v>0.5376405894297536</v>
+      </c>
+      <c r="BI102">
+        <v>0.3464442082990139</v>
+      </c>
+      <c r="BJ102">
+        <v>0.8490904357496496</v>
+      </c>
+      <c r="BK102">
+        <v>0.922774668372183</v>
+      </c>
+      <c r="BL102">
+        <v>0.5979373936085562</v>
+      </c>
+      <c r="BM102">
+        <v>0.1632193360734904</v>
+      </c>
+      <c r="BN102">
+        <v>0.967844769950913</v>
+      </c>
+      <c r="BO102">
+        <v>0.8772092763784113</v>
+      </c>
+      <c r="BP102">
+        <v>0.8892723362066594</v>
+      </c>
+      <c r="BQ102">
+        <v>0.8571154494628238</v>
+      </c>
+      <c r="BR102">
+        <v>0.2224165227135855</v>
+      </c>
+      <c r="BS102">
+        <v>0.8608523810414047</v>
+      </c>
+      <c r="BT102">
+        <v>0.5437398520648119</v>
+      </c>
+      <c r="BU102">
+        <v>0.8564083352715381</v>
+      </c>
+      <c r="BV102">
+        <v>0.8643513535017158</v>
+      </c>
+      <c r="BW102">
+        <v>0.9528108966623188</v>
+      </c>
+      <c r="BX102">
+        <v>0.2990491456500216</v>
+      </c>
+      <c r="BY102">
+        <v>0.06945612565130543</v>
+      </c>
+      <c r="BZ102">
+        <v>0.9091739207945024</v>
+      </c>
+      <c r="CA102">
+        <v>0.4486598127204505</v>
+      </c>
+      <c r="CB102">
+        <v>0.5149441184021557</v>
+      </c>
+      <c r="CC102">
+        <v>0.1568504576971094</v>
+      </c>
+      <c r="CD102">
+        <v>0.8803415795479719</v>
+      </c>
+      <c r="CE102">
+        <v>0.9578001676670059</v>
+      </c>
+      <c r="CF102">
+        <v>0.934778526821884</v>
+      </c>
+      <c r="CG102">
+        <v>0.380688151429688</v>
+      </c>
+      <c r="CH102">
+        <v>0.496625875639351</v>
+      </c>
+      <c r="CI102">
+        <v>0.9142056993068969</v>
+      </c>
+      <c r="CJ102">
+        <v>0.8767187708380997</v>
+      </c>
+      <c r="CK102">
+        <v>0.1823277093389725</v>
+      </c>
+      <c r="CL102">
+        <v>0.8661902676070681</v>
+      </c>
+      <c r="CM102">
+        <v>0.4162264963896939</v>
+      </c>
+      <c r="CN102">
+        <v>0.3411987903762405</v>
+      </c>
+      <c r="CO102">
+        <v>0.1660839450559118</v>
+      </c>
+      <c r="CP102">
+        <v>0.3687452176756412</v>
+      </c>
+      <c r="CQ102">
+        <v>0.3272723698040918</v>
+      </c>
+      <c r="CR102">
+        <v>0.4111153538462401</v>
+      </c>
+      <c r="CS102">
+        <v>0.393791234962214</v>
+      </c>
+      <c r="CT102">
+        <v>0.2370841714533997</v>
+      </c>
+      <c r="CU102">
+        <v>0.3446341131355508</v>
+      </c>
+      <c r="CV102">
+        <v>0.499751923211791</v>
+      </c>
+      <c r="CW102">
+        <v>0.47202736396824</v>
+      </c>
+      <c r="CX102">
+        <v>0</v>
+      </c>
+      <c r="CY102">
+        <v>0.6664917458837278</v>
+      </c>
+    </row>
+    <row r="103" spans="1:103">
+      <c r="A103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103">
         <v>0.05479220858475353</v>
       </c>
-      <c r="C102">
+      <c r="C103">
         <v>0.1118084724571182</v>
       </c>
-      <c r="D102">
+      <c r="D103">
         <v>0.6196472988766097</v>
       </c>
-      <c r="E102">
+      <c r="E103">
         <v>0.5716952955701526</v>
       </c>
-      <c r="F102">
+      <c r="F103">
         <v>0.440623999111622</v>
       </c>
-      <c r="G102">
+      <c r="G103">
         <v>0.08048326573935283</v>
       </c>
-      <c r="H102">
+      <c r="H103">
         <v>0.1641739199552987</v>
       </c>
-      <c r="I102">
+      <c r="I103">
         <v>0.04965573280273405</v>
       </c>
-      <c r="J102">
+      <c r="J103">
         <v>0.6622983171647703</v>
       </c>
-      <c r="K102">
+      <c r="K103">
         <v>0.7509889471383964</v>
       </c>
-      <c r="L102">
+      <c r="L103">
         <v>0.1213345819293182</v>
       </c>
-      <c r="M102">
+      <c r="M103">
         <v>0.1804729160880193</v>
       </c>
-      <c r="N102">
+      <c r="N103">
         <v>0.1349841226082857</v>
       </c>
-      <c r="O102">
+      <c r="O103">
         <v>0.05517000499118963</v>
       </c>
-      <c r="P102">
+      <c r="P103">
         <v>0.603865412207492</v>
       </c>
-      <c r="Q102">
+      <c r="Q103">
         <v>0.8265091246213743</v>
       </c>
-      <c r="R102">
+      <c r="R103">
         <v>0.2303621003109155</v>
       </c>
-      <c r="S102">
+      <c r="S103">
         <v>0.1787272318276601</v>
       </c>
-      <c r="T102">
+      <c r="T103">
         <v>0.3541140934015156</v>
       </c>
-      <c r="U102">
+      <c r="U103">
         <v>0.06030058815692663</v>
       </c>
-      <c r="V102">
+      <c r="V103">
         <v>0.143245368710244</v>
       </c>
-      <c r="W102">
+      <c r="W103">
         <v>0.4534667294538711</v>
       </c>
-      <c r="X102">
+      <c r="X103">
         <v>0.04989888591696734</v>
       </c>
-      <c r="Y102">
+      <c r="Y103">
         <v>0.1264550614305355</v>
       </c>
-      <c r="Z102">
+      <c r="Z103">
         <v>0.1579797558512525</v>
       </c>
-      <c r="AA102">
+      <c r="AA103">
         <v>0.07767877830727565</v>
       </c>
-      <c r="AB102">
+      <c r="AB103">
         <v>0.3813990433964524</v>
       </c>
-      <c r="AC102">
+      <c r="AC103">
         <v>0.1028098939665687</v>
       </c>
-      <c r="AD102">
+      <c r="AD103">
         <v>0.2475594851097916</v>
       </c>
-      <c r="AE102">
+      <c r="AE103">
         <v>0.5850101360249664</v>
       </c>
-      <c r="AF102">
+      <c r="AF103">
         <v>0.4052802759469938</v>
       </c>
-      <c r="AG102">
+      <c r="AG103">
         <v>0.2191461273594453</v>
       </c>
-      <c r="AH102">
+      <c r="AH103">
         <v>0.4755096354267795</v>
       </c>
-      <c r="AI102">
+      <c r="AI103">
         <v>0.5596598877115323</v>
       </c>
-      <c r="AJ102">
+      <c r="AJ103">
         <v>0.09051076530386071</v>
       </c>
-      <c r="AK102">
+      <c r="AK103">
         <v>0.5718948066273726</v>
       </c>
-      <c r="AL102">
+      <c r="AL103">
         <v>0.4884451479759718</v>
       </c>
-      <c r="AM102">
+      <c r="AM103">
         <v>0.1001562436385561</v>
       </c>
-      <c r="AN102">
+      <c r="AN103">
         <v>0.05884897529980071</v>
       </c>
-      <c r="AO102">
+      <c r="AO103">
         <v>0.1790836154913139</v>
       </c>
-      <c r="AP102">
+      <c r="AP103">
         <v>0.5770495121830426</v>
       </c>
-      <c r="AQ102">
+      <c r="AQ103">
         <v>0.5606765212898385</v>
       </c>
-      <c r="AR102">
+      <c r="AR103">
         <v>0.2728617650280462</v>
       </c>
-      <c r="AS102">
+      <c r="AS103">
         <v>0.02275466875376986</v>
       </c>
-      <c r="AT102">
+      <c r="AT103">
         <v>0.6848714700629326</v>
       </c>
-      <c r="AU102">
+      <c r="AU103">
         <v>0.05320799883015426</v>
       </c>
-      <c r="AV102">
+      <c r="AV103">
         <v>0.05940476137837103</v>
       </c>
-      <c r="AW102">
+      <c r="AW103">
         <v>0.4346395737287329</v>
       </c>
-      <c r="AX102">
+      <c r="AX103">
         <v>0.1261198274539418</v>
       </c>
-      <c r="AY102">
+      <c r="AY103">
         <v>0.3560530400581022</v>
       </c>
-      <c r="AZ102">
+      <c r="AZ103">
         <v>0.8501842098730769</v>
       </c>
-      <c r="BA102">
+      <c r="BA103">
         <v>0.03122697043904255</v>
       </c>
-      <c r="BB102">
+      <c r="BB103">
         <v>0.5631922097307502</v>
       </c>
-      <c r="BC102">
+      <c r="BC103">
         <v>0.2223885740897309</v>
       </c>
-      <c r="BD102">
+      <c r="BD103">
         <v>0.2133746181419983</v>
       </c>
-      <c r="BE102">
+      <c r="BE103">
         <v>0.03723175635522902</v>
       </c>
-      <c r="BF102">
+      <c r="BF103">
         <v>0.8498093143806957</v>
       </c>
-      <c r="BG102">
+      <c r="BG103">
         <v>0.0863214473988122</v>
       </c>
-      <c r="BH102">
+      <c r="BH103">
         <v>0.4453672542926355</v>
       </c>
-      <c r="BI102">
+      <c r="BI103">
         <v>0.5916910581281145</v>
       </c>
-      <c r="BJ102">
+      <c r="BJ103">
         <v>0.1137831373215834</v>
       </c>
-      <c r="BK102">
+      <c r="BK103">
         <v>0.0530643918005631</v>
       </c>
-      <c r="BL102">
+      <c r="BL103">
         <v>0.1037312861244577</v>
       </c>
-      <c r="BM102">
+      <c r="BM103">
         <v>0.3890407502809615</v>
       </c>
-      <c r="BN102">
+      <c r="BN103">
         <v>0.7828971215214626</v>
       </c>
-      <c r="BO102">
+      <c r="BO103">
         <v>0.3287466477855773</v>
       </c>
-      <c r="BP102">
+      <c r="BP103">
         <v>0.4059974287590461</v>
       </c>
-      <c r="BQ102">
+      <c r="BQ103">
         <v>0.3984727910008785</v>
       </c>
-      <c r="BR102">
+      <c r="BR103">
         <v>0.6167484925993201</v>
       </c>
-      <c r="BS102">
+      <c r="BS103">
         <v>0.3647283802703462</v>
       </c>
-      <c r="BT102">
+      <c r="BT103">
         <v>0.06863413198608781</v>
       </c>
-      <c r="BU102">
+      <c r="BU103">
         <v>0.2202199803353606</v>
       </c>
-      <c r="BV102">
+      <c r="BV103">
         <v>0.4941686888936524</v>
       </c>
-      <c r="BW102">
+      <c r="BW103">
         <v>0.756660714971951</v>
       </c>
-      <c r="BX102">
+      <c r="BX103">
         <v>0.431733054838892</v>
       </c>
-      <c r="BY102">
+      <c r="BY103">
         <v>0.4903139471012793</v>
       </c>
-      <c r="BZ102">
+      <c r="BZ103">
         <v>0.05203675761944648</v>
       </c>
-      <c r="CA102">
+      <c r="CA103">
         <v>0.3655569448527545</v>
       </c>
-      <c r="CB102">
+      <c r="CB103">
         <v>0.7167322851004427</v>
       </c>
-      <c r="CC102">
+      <c r="CC103">
         <v>0.620560728983669</v>
       </c>
-      <c r="CD102">
+      <c r="CD103">
         <v>0.550045527639851</v>
       </c>
-      <c r="CE102">
+      <c r="CE103">
         <v>0.4645062997513915</v>
       </c>
-      <c r="CF102">
+      <c r="CF103">
         <v>0.7386734874040803</v>
       </c>
-      <c r="CG102">
+      <c r="CG103">
         <v>0.5223223281334368</v>
       </c>
-      <c r="CH102">
+      <c r="CH103">
         <v>0.04763556468297403</v>
       </c>
-      <c r="CI102">
+      <c r="CI103">
         <v>0.7526051423459068</v>
       </c>
-      <c r="CJ102">
+      <c r="CJ103">
         <v>0.09361864413046328</v>
       </c>
-      <c r="CK102">
+      <c r="CK103">
         <v>0.6589681890920105</v>
       </c>
-      <c r="CL102">
+      <c r="CL103">
         <v>0.545301830787412</v>
       </c>
-      <c r="CM102">
+      <c r="CM103">
         <v>0.3781617084339077</v>
       </c>
-      <c r="CN102">
+      <c r="CN103">
         <v>0.1163445424986775</v>
       </c>
-      <c r="CO102">
+      <c r="CO103">
         <v>0.667841464610447</v>
       </c>
-      <c r="CP102">
+      <c r="CP103">
         <v>0.3477525661406886</v>
       </c>
-      <c r="CQ102">
+      <c r="CQ103">
         <v>0.5592972927211903</v>
       </c>
-      <c r="CR102">
+      <c r="CR103">
         <v>0.2044258980659116</v>
       </c>
-      <c r="CS102">
+      <c r="CS103">
         <v>0.6431276271516537</v>
       </c>
-      <c r="CT102">
+      <c r="CT103">
         <v>0.4595960944238712</v>
       </c>
-      <c r="CU102">
+      <c r="CU103">
         <v>0.2570816506834043</v>
       </c>
-      <c r="CV102">
+      <c r="CV103">
         <v>0.06995623645607529</v>
       </c>
-      <c r="CW102">
+      <c r="CW103">
+        <v>0.1886194695528278</v>
+      </c>
+      <c r="CX103">
         <v>0.6664917458837278</v>
       </c>
-      <c r="CX102">
+      <c r="CY103">
         <v>0</v>
       </c>
     </row>
